--- a/Inputdateien/Input_Balingen.xlsx
+++ b/Inputdateien/Input_Balingen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF6C645-EE20-43BE-B7EA-EA98DCC52015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3723B3A1-7B86-4C2C-AE0B-780D3FAD5629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -753,7 +753,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,12 +992,14 @@
         <v>0</v>
       </c>
       <c r="E9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="12">
         <v>60</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
       <c r="H9" s="11" t="str">
         <f>IF(AND(E9=1,D9=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E9=1, ISBLANK(G9)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G9)), E9=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>
@@ -1204,12 +1206,14 @@
         <v>0</v>
       </c>
       <c r="E17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="12">
         <v>180</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
       <c r="H17" s="11" t="str">
         <f>IF(AND(E17=1,D17=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E17=1, ISBLANK(G17)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G17)), E17=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>
@@ -1388,12 +1392,14 @@
         <v>0</v>
       </c>
       <c r="E24" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="12">
         <v>60</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
       <c r="H24" s="11" t="str">
         <f>IF(AND(E24=1,D24=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E24=1, ISBLANK(G24)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G24)), E24=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>

--- a/Inputdateien/Input_Balingen.xlsx
+++ b/Inputdateien/Input_Balingen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3723B3A1-7B86-4C2C-AE0B-780D3FAD5629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D236A05B-A8C5-4CB5-8C42-88B4676F51EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6750" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="3" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Tabelle richtig ausgefüllt?</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>Haltezeit [s]</t>
+  </si>
+  <si>
+    <t>Abbiegevorgang, Einfahrt in Bahnhofsgelände</t>
   </si>
 </sst>
 </file>
@@ -750,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BB4CFC-4877-4FD6-BF56-167E70887CDC}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,7 +818,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="13"/>
       <c r="H2" s="11" t="str">
-        <f>IF(AND(E2=1,D2=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E2=1, ISBLANK(G2)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G2)), E2=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" ref="H2:H32" si="0">IF(AND(E2=1,D2=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E2=1, ISBLANK(G2)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G2)), E2=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -841,7 +844,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
       <c r="H3" s="11" t="str">
-        <f>IF(AND(E3=1,D3=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E3=1, ISBLANK(G3)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G3)), E3=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -850,7 +853,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="B4" s="11">
         <v>15</v>
@@ -867,7 +870,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
       <c r="H4" s="11" t="str">
-        <f>IF(AND(E4=1,D4=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E4=1, ISBLANK(G4)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G4)), E4=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I4" s="12" t="s">
@@ -893,7 +896,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
       <c r="H5" s="11" t="str">
-        <f>IF(AND(E5=1,D5=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E5=1, ISBLANK(G5)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G5)), E5=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -919,7 +922,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
       <c r="H6" s="11" t="str">
-        <f>IF(AND(E6=1,D6=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E6=1, ISBLANK(G6)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G6)), E6=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -945,7 +948,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
       <c r="H7" s="11" t="str">
-        <f>IF(AND(E7=1,D7=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E7=1, ISBLANK(G7)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G7)), E7=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -971,7 +974,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="11" t="str">
-        <f>IF(AND(E8=1,D8=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E8=1, ISBLANK(G8)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G8)), E8=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -992,16 +995,12 @@
         <v>0</v>
       </c>
       <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12">
-        <v>60</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="11" t="str">
-        <f>IF(AND(E9=1,D9=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E9=1, ISBLANK(G9)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G9)), E9=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I9" s="12" t="s">
@@ -1027,7 +1026,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
       <c r="H10" s="11" t="str">
-        <f>IF(AND(E10=1,D10=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E10=1, ISBLANK(G10)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G10)), E10=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I10" s="12" t="s">
@@ -1050,12 +1049,10 @@
       <c r="E11" s="12">
         <v>0</v>
       </c>
-      <c r="F11" s="12">
-        <v>60</v>
-      </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="13"/>
       <c r="H11" s="11" t="str">
-        <f>IF(AND(E11=1,D11=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E11=1, ISBLANK(G11)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G11)), E11=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I11" s="12" t="s">
@@ -1081,7 +1078,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="13"/>
       <c r="H12" s="11" t="str">
-        <f>IF(AND(E12=1,D12=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E12=1, ISBLANK(G12)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G12)), E12=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I12" s="12" t="s">
@@ -1107,7 +1104,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="11" t="str">
-        <f>IF(AND(E13=1,D13=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E13=1, ISBLANK(G13)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G13)), E13=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I13" s="12" t="s">
@@ -1133,7 +1130,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="13"/>
       <c r="H14" s="11" t="str">
-        <f>IF(AND(E14=1,D14=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E14=1, ISBLANK(G14)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G14)), E14=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I14" s="12" t="s">
@@ -1159,7 +1156,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="13"/>
       <c r="H15" s="11" t="str">
-        <f>IF(AND(E15=1,D15=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E15=1, ISBLANK(G15)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G15)), E15=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I15" s="12" t="s">
@@ -1185,7 +1182,7 @@
       <c r="F16" s="12"/>
       <c r="G16" s="13"/>
       <c r="H16" s="11" t="str">
-        <f>IF(AND(E16=1,D16=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E16=1, ISBLANK(G16)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G16)), E16=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I16" s="12" t="s">
@@ -1206,16 +1203,12 @@
         <v>0</v>
       </c>
       <c r="E17" s="12">
-        <v>1</v>
-      </c>
-      <c r="F17" s="12">
-        <v>180</v>
-      </c>
-      <c r="G17" s="13">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="11" t="str">
-        <f>IF(AND(E17=1,D17=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E17=1, ISBLANK(G17)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G17)), E17=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I17" s="12" t="s">
@@ -1224,7 +1217,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
-        <v>3.2</v>
+        <v>3.19</v>
       </c>
       <c r="B18" s="11">
         <v>15</v>
@@ -1241,7 +1234,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="13"/>
       <c r="H18" s="11" t="str">
-        <f>IF(AND(E18=1,D18=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E18=1, ISBLANK(G18)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G18)), E18=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I18" s="12" t="s">
@@ -1267,7 +1260,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="13"/>
       <c r="H19" s="11" t="str">
-        <f>IF(AND(E19=1,D19=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E19=1, ISBLANK(G19)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G19)), E19=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I19" s="12" t="s">
@@ -1276,7 +1269,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
-        <v>3.28</v>
+        <v>3.33</v>
       </c>
       <c r="B20" s="11">
         <v>15</v>
@@ -1293,7 +1286,7 @@
       <c r="F20" s="12"/>
       <c r="G20" s="13"/>
       <c r="H20" s="11" t="str">
-        <f>IF(AND(E20=1,D20=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E20=1, ISBLANK(G20)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G20)), E20=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I20" s="12" t="s">
@@ -1319,7 +1312,7 @@
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
       <c r="H21" s="11" t="str">
-        <f>IF(AND(E21=1,D21=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E21=1, ISBLANK(G21)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G21)), E21=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I21" s="12" t="s">
@@ -1345,7 +1338,7 @@
       <c r="F22" s="12"/>
       <c r="G22" s="13"/>
       <c r="H22" s="11" t="str">
-        <f>IF(AND(E22=1,D22=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E22=1, ISBLANK(G22)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G22)), E22=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I22" s="12" t="s">
@@ -1354,7 +1347,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
-        <v>3.8</v>
+        <v>3.79</v>
       </c>
       <c r="B23" s="11">
         <v>15</v>
@@ -1371,7 +1364,7 @@
       <c r="F23" s="12"/>
       <c r="G23" s="13"/>
       <c r="H23" s="11" t="str">
-        <f>IF(AND(E23=1,D23=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E23=1, ISBLANK(G23)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G23)), E23=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I23" s="12" t="s">
@@ -1392,16 +1385,12 @@
         <v>0</v>
       </c>
       <c r="E24" s="12">
-        <v>1</v>
-      </c>
-      <c r="F24" s="12">
-        <v>60</v>
-      </c>
-      <c r="G24" s="13">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="11" t="str">
-        <f>IF(AND(E24=1,D24=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E24=1, ISBLANK(G24)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G24)), E24=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I24" s="12" t="s">
@@ -1427,7 +1416,7 @@
       <c r="F25" s="12"/>
       <c r="G25" s="13"/>
       <c r="H25" s="11" t="str">
-        <f>IF(AND(E25=1,D25=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E25=1, ISBLANK(G25)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G25)), E25=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I25" s="12" t="s">
@@ -1453,7 +1442,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="13"/>
       <c r="H26" s="11" t="str">
-        <f>IF(AND(E26=1,D26=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E26=1, ISBLANK(G26)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G26)), E26=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I26" s="12" t="s">
@@ -1462,7 +1451,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="B27" s="11">
         <v>15</v>
@@ -1479,7 +1468,7 @@
       <c r="F27" s="12"/>
       <c r="G27" s="13"/>
       <c r="H27" s="11" t="str">
-        <f>IF(AND(E27=1,D27=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E27=1, ISBLANK(G27)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G27)), E27=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I27" s="12" t="s">
@@ -1505,7 +1494,7 @@
       <c r="F28" s="12"/>
       <c r="G28" s="13"/>
       <c r="H28" s="11" t="str">
-        <f>IF(AND(E28=1,D28=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E28=1, ISBLANK(G28)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G28)), E28=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I28" s="12" t="s">
@@ -1531,7 +1520,7 @@
       <c r="F29" s="12"/>
       <c r="G29" s="13"/>
       <c r="H29" s="11" t="str">
-        <f>IF(AND(E29=1,D29=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E29=1, ISBLANK(G29)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G29)), E29=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I29" s="12" t="s">
@@ -1540,10 +1529,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
-        <v>4.45</v>
+        <v>4.29</v>
       </c>
       <c r="B30" s="11">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C30" s="12">
         <v>0</v>
@@ -1557,10 +1546,62 @@
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
       <c r="H30" s="11" t="str">
-        <f>IF(AND(E30=1,D30=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E30=1, ISBLANK(G30)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G30)), E30=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I30" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B31" s="11">
+        <v>15</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
+        <v>4.45</v>
+      </c>
+      <c r="B32" s="11">
+        <v>15</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I32" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1574,10 +1615,6 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1" sqref="G14:G536" xr:uid="{B3166ACD-7875-4911-936A-D91B06A928F4}">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fehlerhafte Eingabe" error="Der Wert muss zwischen 0 und 50 km/h liegen._x000a_Auch bei Ampeln und Haltestellen wird eine Soll-Geschwindigkeit benötigt (für die Fahrt nach dem Halt)." sqref="B1:B1048576" xr:uid="{DA75A9D2-399C-4E98-AD39-5D22B88C110F}">
       <formula1>0.1</formula1>
       <formula2>150</formula2>
@@ -1594,6 +1631,10 @@
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Mögliche Eingaben: 0, 1" sqref="G1:G1048576" xr:uid="{C0607318-FBFD-47AD-9CA4-B37384AEE09F}">
+      <formula1>0</formula1>
+      <formula2>120</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/Inputdateien/Input_Balingen.xlsx
+++ b/Inputdateien/Input_Balingen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\PycharmProjects\Bachelorarbeit_Git\Inputdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D236A05B-A8C5-4CB5-8C42-88B4676F51EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53944C52-A6E6-4596-A67B-88A2EE5C4DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6750" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Tabelle richtig ausgefüllt?</t>
   </si>
@@ -281,9 +281,6 @@
     <t>Ampel</t>
   </si>
   <si>
-    <t>Haltestelle Freibad</t>
-  </si>
-  <si>
     <t>Haltestelle Messegelände</t>
   </si>
   <si>
@@ -312,6 +309,18 @@
   </si>
   <si>
     <t>Abbiegevorgang, Einfahrt in Bahnhofsgelände</t>
+  </si>
+  <si>
+    <t>Beginn des DWPT-Abschnitts</t>
+  </si>
+  <si>
+    <t>Ende des DWPT-Abschnitts</t>
+  </si>
+  <si>
+    <t>potenzielle Haltestelle Freibad</t>
+  </si>
+  <si>
+    <t>Ende des einen, Beginn des nächsten DWPT-Abschnitts</t>
   </si>
 </sst>
 </file>
@@ -753,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BB4CFC-4877-4FD6-BF56-167E70887CDC}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,7 +776,7 @@
     <col min="5" max="6" width="24.88671875" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -787,7 +796,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>6</v>
@@ -818,11 +827,11 @@
       <c r="F2" s="12"/>
       <c r="G2" s="13"/>
       <c r="H2" s="11" t="str">
-        <f t="shared" ref="H2:H32" si="0">IF(AND(E2=1,D2=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E2=1, ISBLANK(G2)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G2)), E2=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
+        <f t="shared" ref="H2:H47" si="0">IF(AND(E2=1,D2=1),"Nein (Bushaltestelle + Ampel ausgewählt)",IF(AND(E2=1, ISBLANK(G2)), "Nein (Fahrplanangabe fehlt)", IF(AND(NOT(ISBLANK(G2)), E2=0), "Nein (Bushaltestelle nicht ausgewählt, aber Fahrplanangabe gemacht)","Ja")))</f>
         <v>Ja</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -848,7 +857,7 @@
         <v>Ja</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -931,16 +940,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="B7" s="11">
         <v>50</v>
       </c>
       <c r="C7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -952,18 +961,18 @@
         <v>Ja</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
-        <v>0.73</v>
+        <v>0.53</v>
       </c>
       <c r="B8" s="11">
         <v>50</v>
       </c>
       <c r="C8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="12">
         <v>1</v>
@@ -983,7 +992,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
-        <v>0.83</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="B9" s="11">
         <v>50</v>
@@ -1004,21 +1013,21 @@
         <v>Ja</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
-        <v>0.99</v>
+        <v>0.68</v>
       </c>
       <c r="B10" s="11">
         <v>50</v>
       </c>
       <c r="C10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="12">
         <v>0</v>
@@ -1030,21 +1039,21 @@
         <v>Ja</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
-        <v>1.25</v>
+        <v>0.73</v>
       </c>
       <c r="B11" s="11">
         <v>50</v>
       </c>
       <c r="C11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -1056,21 +1065,21 @@
         <v>Ja</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
-        <v>1.42</v>
+        <v>0.78</v>
       </c>
       <c r="B12" s="11">
         <v>50</v>
       </c>
       <c r="C12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="12">
         <v>0</v>
@@ -1082,38 +1091,42 @@
         <v>Ja</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
-        <v>1.53</v>
+        <v>0.83</v>
       </c>
       <c r="B13" s="11">
         <v>50</v>
       </c>
       <c r="C13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <v>60</v>
+      </c>
+      <c r="G13" s="13">
+        <v>4</v>
+      </c>
       <c r="H13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>2.02</v>
+      <c r="A14" s="10">
+        <v>0.88</v>
       </c>
       <c r="B14" s="11">
         <v>50</v>
@@ -1122,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="12">
         <v>0</v>
@@ -1134,21 +1147,21 @@
         <v>Ja</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
-        <v>2.1</v>
+      <c r="A15" s="10">
+        <v>0.94</v>
       </c>
       <c r="B15" s="11">
         <v>50</v>
       </c>
       <c r="C15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="12">
         <v>0</v>
@@ -1160,18 +1173,18 @@
         <v>Ja</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
-        <v>2.21</v>
+      <c r="A16" s="10">
+        <v>0.99</v>
       </c>
       <c r="B16" s="11">
         <v>50</v>
       </c>
       <c r="C16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="12">
         <v>1</v>
@@ -1190,8 +1203,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
-        <v>2.7</v>
+      <c r="A17" s="10">
+        <v>1.04</v>
       </c>
       <c r="B17" s="11">
         <v>50</v>
@@ -1212,15 +1225,15 @@
         <v>Ja</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
-        <v>3.19</v>
+      <c r="A18" s="10">
+        <v>1.25</v>
       </c>
       <c r="B18" s="11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C18" s="12">
         <v>0</v>
@@ -1238,18 +1251,18 @@
         <v>Ja</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
-        <v>3.3</v>
+      <c r="A19" s="10">
+        <v>1.37</v>
       </c>
       <c r="B19" s="11">
         <v>50</v>
       </c>
       <c r="C19" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="12">
         <v>0</v>
@@ -1264,21 +1277,21 @@
         <v>Ja</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
-        <v>3.33</v>
+      <c r="A20" s="10">
+        <v>1.42</v>
       </c>
       <c r="B20" s="11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C20" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="12">
         <v>0</v>
@@ -1290,15 +1303,15 @@
         <v>Ja</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
-        <v>3.38</v>
+      <c r="A21" s="10">
+        <v>1.47</v>
       </c>
       <c r="B21" s="11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C21" s="12">
         <v>0</v>
@@ -1316,21 +1329,21 @@
         <v>Ja</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
-        <v>3.43</v>
+      <c r="A22" s="10">
+        <v>1.53</v>
       </c>
       <c r="B22" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C22" s="12">
         <v>0</v>
       </c>
       <c r="D22" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="12">
         <v>0</v>
@@ -1342,18 +1355,18 @@
         <v>Ja</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
-        <v>3.79</v>
+      <c r="A23" s="10">
+        <v>2.0099999999999998</v>
       </c>
       <c r="B23" s="11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C23" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="12">
         <v>0</v>
@@ -1368,21 +1381,21 @@
         <v>Ja</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
-        <v>3.83</v>
+        <v>2.02</v>
       </c>
       <c r="B24" s="11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C24" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="12">
         <v>0</v>
@@ -1394,21 +1407,21 @@
         <v>Ja</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
-        <v>3.86</v>
+        <v>2.1</v>
       </c>
       <c r="B25" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C25" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="12">
         <v>0</v>
@@ -1420,12 +1433,12 @@
         <v>Ja</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
-        <v>3.94</v>
+        <v>2.11</v>
       </c>
       <c r="B26" s="11">
         <v>50</v>
@@ -1446,21 +1459,21 @@
         <v>Ja</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
-        <v>4.04</v>
+        <v>2.21</v>
       </c>
       <c r="B27" s="11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C27" s="12">
         <v>0</v>
       </c>
       <c r="D27" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="12">
         <v>0</v>
@@ -1472,18 +1485,18 @@
         <v>Ja</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
-        <v>4.1500000000000004</v>
+        <v>2.65</v>
       </c>
       <c r="B28" s="11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="12">
         <v>0</v>
@@ -1498,41 +1511,45 @@
         <v>Ja</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="B29" s="11">
         <v>50</v>
       </c>
       <c r="C29" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="12">
         <v>0</v>
       </c>
       <c r="E29" s="12">
-        <v>0</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="12">
+        <v>120</v>
+      </c>
+      <c r="G29" s="13">
+        <v>12</v>
+      </c>
       <c r="H29" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
-        <v>4.29</v>
+        <v>2.75</v>
       </c>
       <c r="B30" s="11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C30" s="12">
         <v>0</v>
@@ -1550,12 +1567,12 @@
         <v>Ja</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
-        <v>4.4000000000000004</v>
+        <v>3.19</v>
       </c>
       <c r="B31" s="11">
         <v>15</v>
@@ -1576,15 +1593,15 @@
         <v>Ja</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
-        <v>4.45</v>
+        <v>3.3</v>
       </c>
       <c r="B32" s="11">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C32" s="12">
         <v>0</v>
@@ -1602,7 +1619,401 @@
         <v>Ja</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
+        <v>3.33</v>
+      </c>
+      <c r="B33" s="11">
+        <v>15</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
+        <v>3.38</v>
+      </c>
+      <c r="B34" s="11">
+        <v>15</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
+        <v>3.43</v>
+      </c>
+      <c r="B35" s="11">
+        <v>30</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
+        <v>3.78</v>
+      </c>
+      <c r="B36" s="11">
+        <v>30</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>3.79</v>
+      </c>
+      <c r="B37" s="11">
+        <v>15</v>
+      </c>
+      <c r="C37" s="12">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>3.83</v>
+      </c>
+      <c r="B38" s="11">
+        <v>15</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0</v>
+      </c>
+      <c r="E38" s="12">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12">
+        <v>60</v>
+      </c>
+      <c r="G38" s="13">
+        <v>15</v>
+      </c>
+      <c r="H38" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <v>3.86</v>
+      </c>
+      <c r="B39" s="11">
+        <v>30</v>
+      </c>
+      <c r="C39" s="12">
+        <v>1</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
+        <v>3.88</v>
+      </c>
+      <c r="B40" s="11">
+        <v>30</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
+        <v>3.94</v>
+      </c>
+      <c r="B41" s="11">
+        <v>50</v>
+      </c>
+      <c r="C41" s="12">
+        <v>0</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="14">
+        <v>4.04</v>
+      </c>
+      <c r="B42" s="11">
+        <v>15</v>
+      </c>
+      <c r="C42" s="12">
+        <v>0</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="B43" s="11">
+        <v>15</v>
+      </c>
+      <c r="C43" s="12">
+        <v>0</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="B44" s="11">
+        <v>50</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="14">
+        <v>4.29</v>
+      </c>
+      <c r="B45" s="11">
+        <v>15</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B46" s="11">
+        <v>15</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="14">
+        <v>4.45</v>
+      </c>
+      <c r="B47" s="11">
+        <v>15</v>
+      </c>
+      <c r="C47" s="12">
+        <v>0</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ja</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
